--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-20.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,6 +1069,762 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>plate; dish</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>皿|さら</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>paper plate</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>紙皿|かみざら</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ashtray</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>灰皿|はいざら</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>voice</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>声|こえ</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>phonetics</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>音声学|おんせいがく</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>onomatopoeia</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>擬声語|ぎせいご</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>voice actor</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>声優|せいゆう</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Japanese tea</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>お茶|おちゃ</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>teahouse</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>茶店|ちゃみせ</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>black tea</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>紅茶|こうちゃ</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>brown</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>茶色|ちゃいろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>cafe</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>喫茶店|きっさてん</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>(something) stops</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>止まる|とまる</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>to cancel</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>中止する|ちゅうしする</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>to prohibit</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>禁止する|きんしする</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>one sheet</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>一枚|いちまい</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>number of flat things</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>枚数|まいすう</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Three ryoo</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>三両|さんりょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>parents</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>両親|りょうしん</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>both hands</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>両手|りょうて</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>両替|りょうがえ</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>both sides</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>両方|りょうほう</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>無理な|むりな</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>wasteful</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>無駄な|むだな</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>free of charge</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>無料|むりょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>rude</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>無礼な|ぶれいな</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>there is no...</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>無い|ない</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>to pay</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>払う|はらう</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>payment</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>支払い|しはらい</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>refund</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>払い戻し|はらいもどし</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>payment in installments</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>分割払い|ぶんかつばらい</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>heart; mind</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>心|こころ</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>to worry</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>心配する|しんぱいする</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>enthusiastic</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>熱心な|ねっしんな</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>safe</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>安心な|あんしんな</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>curiosity</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>好奇心|こうきしん</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>to laugh</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>笑う|わらう</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>smile; smiling face</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>笑顔|えがお</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>to smile</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>微笑む|ほほえむ</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>to burst into laughter</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>爆笑する|ばくしょうする</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>definitely</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>絶対に|ぜったいに</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>to die out</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>絶える|たえる</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>extinction</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>絶滅|ぜつめつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>to faint</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>気絶する|きぜつする</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>despair</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>絶望|ぜつぼう</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>to oppose</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>反対する|はんたいする</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Japan versus China</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>日本対中国|にほんたいちゅうごく</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>a pair</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>一対|いっつい</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>painful</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>痛い|いたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>painkiller</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>痛み止め|いたみどめ</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>headache</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>頭痛|ずつう</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>stomachache</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>腹痛|ふくつう</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>lower back pain</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>腰痛|ようつう</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>the worst</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>最悪|さいあく</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>最近|さいきん</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>the best</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>最高|さいこう</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>the latest</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>最新|さいしん</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>lastly</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>最後に|さいごに</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>most</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>最も|もっとも</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>to continue</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>続ける|つづける</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>procedure</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>手続き|てつづき</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>to inherit</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>相続する|そうぞくする</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>serial TV drama</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>連続ドラマ|れんぞくドラマ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-20.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-20.xlsx
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>mysterious</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
